--- a/biology/Zoologie/Ephalophis_greyae/Ephalophis_greyae.xlsx
+++ b/biology/Zoologie/Ephalophis_greyae/Ephalophis_greyae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ephalophis greyae, unique représentant du genre Ephalophis, est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ephalophis greyae, unique représentant du genre Ephalophis, est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des mangroves de l'Australie-Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des mangroves de l'Australie-Occidentale.
 Sa présence est incertaine dans le Territoire du Nord.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux.
 </t>
@@ -574,10 +590,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Beatrice Grey.
-Le nom de cette espèce était au départ orthographié greyi avec une faute de déclinaison du latin, masculin en lieu et place du féminin, ce qui a été corrigé par Shea[2].
+Le nom de cette espèce était au départ orthographié greyi avec une faute de déclinaison du latin, masculin en lieu et place du féminin, ce qui a été corrigé par Shea.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1931 : Description of a new genus of sea snake from the coast of Australia, with a note on the structure providing for complete closure of the mouth in aquatic snakes. Proceedings of the Zoological Society of London, vol. 1931, p. 397-398.</t>
         </is>
